--- a/data/score_gaps.xlsx
+++ b/data/score_gaps.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,20 +465,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>needle_rating_previous</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>previous_test</t>
         </is>
@@ -489,7 +494,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>45980</v>
@@ -506,15 +511,18 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2" t="n">
         <v>24</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>-235</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>-229</v>
       </c>
     </row>
@@ -523,7 +531,7 @@
         <v>81</v>
       </c>
       <c r="B3" t="n">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>45904</v>
@@ -540,15 +548,18 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>81</v>
+      </c>
+      <c r="H3" t="n">
         <v>56</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>-134</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>-137</v>
       </c>
     </row>
@@ -557,7 +568,7 @@
         <v>82</v>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45902</v>
@@ -574,15 +585,18 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>82</v>
+      </c>
+      <c r="H4" t="n">
         <v>57</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>-134</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>-136</v>
       </c>
     </row>
@@ -591,7 +605,7 @@
         <v>88</v>
       </c>
       <c r="B5" t="n">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>45889</v>
@@ -608,15 +622,18 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>88</v>
+      </c>
+      <c r="H5" t="n">
         <v>61</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>-118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>-112</v>
       </c>
     </row>
@@ -625,7 +642,7 @@
         <v>107</v>
       </c>
       <c r="B6" t="n">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>45861</v>
@@ -642,15 +659,18 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>107</v>
+      </c>
+      <c r="H6" t="n">
         <v>76</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>-66</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>-63</v>
       </c>
     </row>
@@ -659,7 +679,7 @@
         <v>115</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>45849</v>
@@ -676,15 +696,18 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>115</v>
+      </c>
+      <c r="H7" t="n">
         <v>194</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>-63</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>-61</v>
       </c>
     </row>
@@ -693,7 +716,7 @@
         <v>120</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>45841</v>
@@ -710,15 +733,18 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>120</v>
+      </c>
+      <c r="H8" t="n">
         <v>197</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>-54</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>-53</v>
       </c>
     </row>
@@ -727,7 +753,7 @@
         <v>129</v>
       </c>
       <c r="B9" t="n">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>45827</v>
@@ -744,15 +770,18 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>129</v>
+      </c>
+      <c r="H9" t="n">
         <v>94</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>-35</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>-29</v>
       </c>
     </row>
@@ -761,7 +790,7 @@
         <v>132</v>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>45824</v>
@@ -778,15 +807,18 @@
         </is>
       </c>
       <c r="G10" t="n">
+        <v>132</v>
+      </c>
+      <c r="H10" t="n">
         <v>97</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>-31</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>-33</v>
       </c>
     </row>
@@ -795,7 +827,7 @@
         <v>138</v>
       </c>
       <c r="B11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>45814</v>
@@ -812,15 +844,18 @@
         </is>
       </c>
       <c r="G11" t="n">
+        <v>138</v>
+      </c>
+      <c r="H11" t="n">
         <v>103</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>-39</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>-38</v>
       </c>
     </row>
@@ -829,7 +864,7 @@
         <v>165</v>
       </c>
       <c r="B12" t="n">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>45775</v>
@@ -846,15 +881,18 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>165</v>
+      </c>
+      <c r="H12" t="n">
         <v>130</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>-15</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>-21</v>
       </c>
     </row>
@@ -863,7 +901,7 @@
         <v>201</v>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>45722</v>
@@ -880,13 +918,16 @@
         </is>
       </c>
       <c r="G13" t="n">
+        <v>201</v>
+      </c>
+      <c r="H13" t="n">
         <v>162</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
         <v>70</v>
       </c>
     </row>
